--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhamMinhTuan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITHUB\PTUD_Nhom5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>TASK</t>
   </si>
@@ -141,13 +141,16 @@
   </si>
   <si>
     <t>Nhóm 5: XÂY DỰNG ỨNG DỤNG QUẢN LÝ CÔNG VIỆC</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +174,13 @@
     <font>
       <sz val="11"/>
       <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,11 +233,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,6 +251,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,7 +542,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,250 +554,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3">
-        <v>7</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>37</v>
       </c>
     </row>

--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -253,11 +253,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,7 +542,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,14 +554,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -599,7 +599,7 @@
       <c r="E3" s="2">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -619,7 +619,7 @@
       <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -639,7 +639,7 @@
       <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -659,7 +659,7 @@
       <c r="E6" s="2">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -679,8 +679,8 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>39</v>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,8 +679,8 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
